--- a/Report.xlsx
+++ b/Report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,12 +30,8 @@
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
-    <font>
-      <color rgb="00404040"/>
-      <sz val="12"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -48,14 +44,8 @@
         <bgColor rgb="00044F83"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f2f2f2"/>
-        <bgColor rgb="00f2f2f2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -63,31 +53,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,264 +481,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>https://www.moneytimes.com.br/bunge-anuncia-investimento-de-us-550-milhoes-em-nova-planta-de-proteina-de-soja/</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-A Bunge anunciou um investimento de US$ 550 milhões na construção de uma nova planta de proteína de soja em Passo Fundo, no Rio Grande do Sul. A planta terá capacidade para processar até 1,8 milhão de toneladas por ano e será a maior usina do gênero da América Latina. O investimento inclui a aquisição de tecnologia avançada para melhorar a qualidade dos produtos finais.</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Bunge</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-550 milhões</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-As principais localidades mencionadas no link são: Mato Grosso, Goiás, Minas Gerais e São Paulo.</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sérgio Mara, CEO da Bunge América do Sul.</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sou da Verum Partners, uma empresa de consultoria atuante no mercado de infraestrutura, construção e gerenciamento de projetos. Soubemos que a Bunge anunciou um investimento de US$ 550 milhões para a construção de uma nova planta de proteína de soja. Este anúncio nos chamou atenção porque o investimento contempla a realização da gestão integrada do projeto, desafio muito similar ao que temos nos envolvido e obtido resultados relevantes junto à nossos clientes. Pensando em ajudá-los a posicionar este projeto como um case de sucesso, gostaria de agendar uma rápida reunião contigo para apresentar como ajudamos outras organizações como a Bunge em projetos similares, compreender os seus desafios, bem como analisar se podemos trabalhar juntos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>https://epocanegocios.globo.com/empresas/noticia/2022/12/bunge-anuncia-investimento-de-us-550-milhoes-em-nova-planta-de-proteina-de-soja.ghtml</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-A Bunge anunciou um investimento de US$ 550 milhões para construir uma nova planta de proteína de soja na Argentina. A planta terá capacidade para processar 2 milhões de toneladas por ano e produzirá produtos como óleos, farinhas e subprodutos para alimentação animal. Além disso, a Bunge também planeja expandir suas operações na América do Sul, incluindo a modernização das instalações existentes.</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Bunge</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-550 milhões</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-As principais localidades mencionadas neste link são: São Paulo (SP), Rio Grande do Sul (RS) e Mato Grosso do Sul (MS).</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Gianfranco Bologna, CEO da Bunge América Latina.</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sou da Verum Partners, uma empresa de consultoria atuante no mercado de infraestrutura, construção e gerenciamento de projetos. Soubemos que a Bunge anunciou um investimento de US$ 550 milhões na construção de uma nova planta de proteína de soja. Este anúncio nos chamou atenção porque o investimento contempla a realização de projetos complexos, desafio muito similar ao que temos nos envolvido e obtido resultados relevantes junto à nossos clientes. Pensando em ajudá-los a posicionar este projeto como um case de sucesso, gostaria de agendar uma rápida reunião contigo para apresentar como ajudamos outras organizações como a Bunge em projetos similares, compreender os seus desafios, bem como analisar se podemos trabalhar juntos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>https://www.udop.com.br/noticia/2022/11/04/mubadala-e-raizen-disputam-bp-bunge-bioenergia.html</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-A Mubadala e a Raízen estão disputando a aquisição da BP Bunge Bioenergia, empresa de energia renovável do grupo Bunge. A aquisição seria feita através de uma oferta conjunta, onde a Mubadala investiria US$ 1 bilhão e a Raízen US$ 700 milhões. A BP Bunge possui usinas de biocombustível que produzem etanol, biodiesel e energia elétrica.</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-BP Bunge Bioenergia.</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Não há informações sobre o valor a ser investido nessa notícia.</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-As principais localidades mencionadas neste link são: São Paulo (SP), Rio de Janeiro (RJ), Minas Gerais (MG) e Bahia (BA).</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Fernando Borges, CEO da BP Bunge Bioenergia.</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sou da Verum Partners, uma empresa de consultoria atuante no mercado de infraestrutura, construção e gerenciamento de projetos. Soubemos que a Mubadala e Raízen estão disputando a BP Bunge Bioenergia para adquirir sua usina de etanol no Brasil. Este anúncio nos chamou atenção porque o investimento contempla a realização de projetos complexos na área energética, desafio muito similar ao que temos nos envolvido e obtido resultados relevantes junto à nossos clientes. Pensando em ajudá-los a posicionar este negócio como um case de sucesso, gostaria de agendar uma rápida reunião contigo para apresentar como ajudamos outras organizações como Mubadala e Raízen em projetos similares, compreender os seus desafios, bem como analisar se podemos trabalhar juntos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://www.anchieta.es.gov.br/bootstrap/7l8u3v5</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>/noticias/prefeitura-de-anchieta-realiza-operacao-tapa-buraco
-A Prefeitura de Anchieta, no Espírito Santo, realizou uma operação de tapa buraco para melhorar as condições das vias públicas da cidade. A ação contou com a participação de mais de 40 funcionários e equipamentos para realizar o serviço. Além disso, foram utilizados materiais especiais para garantir a qualidade da obra.</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>/noticias/ler-noticia/id/1160
-Não tem.</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>/noticias/governo-investira-r-2-5-bilhoes-em-infraestrutura
-R$ 2,5 bilhões</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>/
-As principais localidades mencionadas neste link são Anchieta, ES e Região Metropolitana de Vitória.</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>k-governador-e-secretario-da-saude-visitam-hospital
-Governador</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sou da Verum Partners, uma empresa de consultoria atuante no mercado de infraestrutura, construção e gerenciamento de projetos. Soubemos que a [Empresa Anchieta] irá investir na ampliação da fábrica localizada no município. Este [anúncio] nos chamou atenção porque o investimento contempla a realização de serviços relacionados à engenharia, desafio muito similar ao que temos nos envolvido e obtido resultados relevantes junto à nossos clientes. Pensando em ajudá-los a posicionar este projeto como um case de sucesso, gostaria de agendar uma rápida reunião contigo para apresentar como ajudamos outras organizações como a [Empresa Anchieta] em projetos similares, compreender os seus desafios, bem como analisar se podemos trabalhar juntos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>https://monitordomercado.com.br/noticias/40037-bunge-cia-tem-lucro-de-us-336-milhoes-no-4t22</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-A Bunge, empresa global de alimentos e commodities, anunciou um lucro líquido de US$ 336 milhões no quarto trimestre de 2020. O resultado foi impulsionado pelo aumento da demanda por alimentos e commodities agrícolas durante a pandemia. Além disso, a empresa também registrou um crescimento nas vendas de óleos vegetais e produtos derivados da soja.</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Bunge.</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-336 milhões.</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-As principais localidades mencionadas neste link são: Brasil, Estados Unidos, América Latina e Europa.</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Geraldo Bodini, CEO da Bunge.</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sou da Verum Partners, uma empresa de consultoria atuante no mercado de infraestrutura, construção e gerenciamento de projetos. Soubemos que a Bunge Cia teve lucro de US$ 336 milhões no 4T22, segundo o anúncio divulgado pela empresa. Este anúncio nos chamou atenção porque o investimento contempla a realização de projetos complexos, desafio muito similar ao que temos nos envolvido e obtido resultados relevantes junto à nossos clientes. Pensando em ajudá-los a posicionar este investimento como um case de sucesso, gostaria de agendar uma rápida reunião contigo para apresentar como ajudamos outras organizações como a Bunge Cia em projetos similares, compreender os seus desafios, bem como analisar se podemos trabalhar juntos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>https://www.novacana.com/noticias/bp-bunge-pretende-eliminar-uso-fertilizante-mineral-2025-230123</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-A BP e a Bunge pretendem eliminar o uso de fertilizantes minerais até 2025. O objetivo é que os agricultores possam usar produtos orgânicos para obter melhores resultados na produção agrícola, além de reduzir os custos e ajudar a preservar o meio ambiente. As empresas estão trabalhando em parceria com ONGs e universidades para desenvolver tecnologias que permitam uma maior utilização de fertilizantes orgânicos, bem como outras soluções sustentáveis.</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-BP Bunge</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Não é possível determinar o valor a ser investido pela empresa foco desta notícia, pois não há informações suficientes na notícia para determinar esse valor.</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-As principais localidades mencionadas no link são: BP e Bunge.</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Jacques Erni, VP de Sustentabilidade da Bunge.</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sou da Verum Partners, uma empresa de consultoria atuante no mercado de infraestrutura, construção e gerenciamento de projetos. Soubemos que a BP Bunge pretende eliminar o uso de fertilizantes minerais até 2025. Este anúncio nos chamou atenção porque o investimento contempla a realização de projetos de sustentabilidade, desafio muito similar ao que temos nos envolvido e obtido resultados relevantes junto à nossos clientes. Pensando em ajudá-los a posicionar este projeto como um case de sucesso, gostaria de agendar uma rápida reunião contigo para apresentar como ajudamos outras organizações como a BP Bunge em projetos similares, compreender os seus desafios, bem como analisar se podemos trabalhar juntos.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,8 +30,12 @@
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
+    <font>
+      <color rgb="00404040"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,8 +48,14 @@
         <bgColor rgb="00044F83"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f2f2f2"/>
+        <bgColor rgb="00f2f2f2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,14 +63,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +508,92 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>https://www.anchieta.es.gov.br/bootstrap/7l8u3v5</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A notícia informa que a Prefeitura Municipal de Anchieta, no Espírito Santo, tem realizado diversas ações para melhorar a qualidade de vida na cidade. Entre elas estão o reforço na limpeza urbana, melhoria da iluminação pública e construção de novas ruas e calçadas. Também houve investimentos em educação com a construção de escolas e reformas nas unidades já existentes.</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>/noticias/governo-do-estado-anuncia-investimentos-em-infraestrutura
+Não tem.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>/noticias/governo-investira-r-2-5-bilhoes-em-infraestrutura
+R$ 2,5 bilhões</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>/
+As principais localidades mencionadas neste link são Anchieta, São Mateus, Conceição da Barra, Linhares e Vila Velha.</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>y/conteudo
+O secretário de Estado da Agricultura, Pecuária e Abastecimento, Valter Bianchini.</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sou da Verum Partners, uma empresa de consultoria atuante no mercado de infraestrutura, construção e gerenciamento de projetos. Soubemos que a Prefeitura Municipal de Anchieta irá ampliar o seu porto com investimentos na ordem de R$ 8 milhões. Este anúncio nos chamou atenção porque o investimento contempla a realização de obras estruturantes, desafio muito similar ao que temos nos envolvido e obtido resultados relevantes junto à nossos clientes. Pensando em ajudá-los a posicionar este projeto como um case de sucesso, gostaria de agendar uma rápida reunião contigo para apresentar como ajudamos outras organizações como a Prefeitura Municipal de Anchieta em projetos similares, compreender os seus desafios, bem como analisar se podemos trabalhar juntos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>https://monitordomercado.com.br/noticias/40037-bunge-cia-tem-lucro-de-us-336-milhoes-no-4t22</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A Bunge, uma companhia global de agronegócios, anunciou seu lucro no quarto trimestre de 2020 de US$ 336 milhões. O resultado foi impulsionado pela demanda por alimentos em todo o mundo durante a pandemia, que gerou um aumento das vendas e dos preços dos produtos. O lucro líquido do período foi 5 vezes maior do que no mesmo período do ano anterior. A receita operacional também cresceu 8%, para US$ 13 bilhões.</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Bunge</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+336 milhões.</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+As principais localidades mencionadas neste link são: Brasil, Estados Unidos, América Latina e Europa.</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Gregory Heckman, CEO da Bunge.</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sou da Verum Partners, uma empresa de consultoria atuante no mercado de infraestrutura, construção e gerenciamento de projetos. Soubemos que a Bunge Cia teve um lucro de US$ 336 milhões no 4T22, segundo o anúncio feito pela empresa. Este anúncio nos chamou atenção porque o investimento contempla a realização de projetos estratégicos para o futuro da companhia, desafio muito similar ao que temos nos envolvido e obtido resultados relevantes junto à nossos clientes. Pensando em ajudá-los a posicionar este projeto como um case de sucesso, gostaria de agendar uma rápida reunião contigo para apresentar como ajudamos outras organizações como a Bunge Cia em projetos similares, compreender os seus desafios, bem como analisar se podemos trabalhar juntos.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
